--- a/xlsx/孟加拉国_intext.xlsx
+++ b/xlsx/孟加拉国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="794">
   <si>
     <t>孟加拉国</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89_(%E5%9C%B0%E5%8D%80)</t>
   </si>
   <si>
-    <t>孟加拉 (地區)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_孟加拉国</t>
+    <t>孟加拉 (地区)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_孟加拉国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E8%AD%B0%E6%9C%83_(%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國民議會 (孟加拉國)</t>
+    <t>国民议会 (孟加拉国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD%E8%A7%A3%E6%94%BE%E6%88%98%E4%BA%89</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E8%87%A8%E6%99%82%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>孟加拉人民共和國臨時政府</t>
+    <t>孟加拉人民共和国临时政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%92%8C%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9C%8B%E4%B9%8B%E9%96%93%E7%9A%84%E9%A3%9B%E5%9C%B0</t>
   </si>
   <si>
-    <t>印度和孟加拉國之間的飛地</t>
+    <t>印度和孟加拉国之间的飞地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD%E5%9C%B0%E7%90%86</t>
@@ -335,15 +335,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%82%E7%A2%BC</t>
   </si>
   <si>
-    <t>亂碼</t>
+    <t>乱码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>孟加拉語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A</t>
   </si>
   <si>
@@ -389,9 +386,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E7%81%A3</t>
   </si>
   <si>
-    <t>孟加拉灣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A4%A7%E6%B8%AF%E5%B8%82</t>
   </si>
   <si>
@@ -479,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%B7%B4%E9%A0%93%E6%96%B9%E6%A1%88</t>
   </si>
   <si>
-    <t>蒙巴頓方案</t>
+    <t>蒙巴顿方案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B0%94%E5%90%84%E7%AD%94</t>
@@ -545,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9C%8B%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9%E9%BB%A8</t>
   </si>
   <si>
-    <t>孟加拉國民族主義黨</t>
+    <t>孟加拉国民族主义党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E4%BA%9E%C2%B7%E6%8B%89%E8%B5%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>齊亞·拉赫曼</t>
+    <t>齐亚·拉赫曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A4%A7%E6%B8%AF</t>
@@ -581,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E9%AD%AF%E7%88%BE%C2%B7%E6%8B%89%E8%B5%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>齊魯爾·拉赫曼</t>
+    <t>齐鲁尔·拉赫曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E8%99%8E</t>
@@ -659,37 +653,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%87%8C%E8%96%A9%E7%88%BE%E5%B0%88%E5%8D%80</t>
   </si>
   <si>
-    <t>巴里薩爾專區</t>
+    <t>巴里萨尔专区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A4%A7%E6%B8%AF%E5%B0%88%E5%8D%80</t>
   </si>
   <si>
-    <t>吉大港專區</t>
+    <t>吉大港专区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%8D%A1%E5%B0%88%E5%8D%80</t>
   </si>
   <si>
-    <t>達卡專區</t>
+    <t>达卡专区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%88%BE%E7%B4%8D%E5%B0%88%E5%8D%80</t>
   </si>
   <si>
-    <t>庫爾納專區</t>
+    <t>库尔纳专区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%82%91%E6%B2%99%E5%B8%8C%E5%B0%88%E5%8D%80</t>
   </si>
   <si>
-    <t>拉傑沙希專區</t>
+    <t>拉杰沙希专区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E7%88%BE%E8%B5%AB%E7%89%B9%E5%B0%88%E5%8D%80</t>
   </si>
   <si>
-    <t>錫爾赫特專區</t>
+    <t>锡尔赫特专区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E5%B8%83%E5%B0%94%E4%B8%93%E5%8C%BA</t>
@@ -707,13 +701,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>南亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E7%89%A9%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>購物中心</t>
+    <t>购物中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%B0</t>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>孟加拉國經濟</t>
+    <t>孟加拉国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E5%87%86%E6%99%AE%E5%B0%94</t>
@@ -743,25 +734,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%99%BC%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>開發中國家</t>
+    <t>开发中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%BA%BB</t>
   </si>
   <si>
-    <t>黃麻</t>
+    <t>黄麻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E4%B8%99%E7%83%AF</t>
@@ -779,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E5%87%8D%E9%A3%9F%E5%93%81</t>
   </si>
   <si>
-    <t>冷凍食品</t>
+    <t>冷冻食品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E9%9D%A9</t>
@@ -791,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E8%91%89</t>
   </si>
   <si>
-    <t>茶葉</t>
+    <t>茶叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E8%82%A5</t>
@@ -833,13 +821,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
+    <t>世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E9%BE%8D</t>
   </si>
   <si>
-    <t>雪佛龍</t>
+    <t>雪佛龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%AA%E5%B7%9D%E5%85%AC%E5%8F%B8</t>
@@ -851,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>經濟學家</t>
+    <t>经济学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%B0%A4%E7%BA%B3%E6%96%AF</t>
@@ -863,13 +851,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E5%92%8C%E5%B9%B3%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾和平獎</t>
+    <t>诺贝尔和平奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%90%8A%E7%8E%9F%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>格萊玟銀行</t>
+    <t>格莱玟银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5%E4%BA%BA</t>
@@ -881,13 +869,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%8F%B2%E6%B4%BE</t>
   </si>
   <si>
-    <t>蘇菲派</t>
+    <t>苏菲派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%95%99%E5%A3%AB</t>
   </si>
   <si>
-    <t>傳教士</t>
+    <t>传教士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
@@ -947,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%8D%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>達卡大學</t>
+    <t>达卡大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bangladesh_University_of_Engineering_and_Technology</t>
@@ -1001,13 +989,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%87%9F</t>
   </si>
   <si>
-    <t>國營</t>
+    <t>国营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%85%8B%E7%91%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>查克瑪人</t>
+    <t>查克玛人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%BA%A7%E9%83%A8%E4%BD%9B%E6%95%99</t>
@@ -1025,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%85%8B%E6%96%AF%E5%B7%B4%E6%89%8E%E7%88%BE%E7%B8%A3</t>
   </si>
   <si>
-    <t>科克斯巴扎爾縣</t>
+    <t>科克斯巴扎尔县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%AB%E5%9B%B0%E7%BA%BF</t>
@@ -1061,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E7%88%BE%E8%B5%AB%E7%89%B9%E5%B8%82</t>
   </si>
   <si>
-    <t>錫爾赫特市</t>
+    <t>锡尔赫特市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E5%B8%83%E5%B0%94%E5%B8%82</t>
@@ -1079,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E8%88%AA%E7%B7%9A</t>
   </si>
   <si>
-    <t>國內航線</t>
+    <t>国内航线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%88%AA%E7%BA%BF</t>
@@ -1103,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%96%E8%BB%8D%E4%BA%8B%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>準軍事部隊</t>
+    <t>准军事部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E8%B0%8B%E9%95%BF</t>
@@ -1115,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E5%86%9B</t>
@@ -1127,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E8%B2%BB</t>
   </si>
   <si>
-    <t>軍費</t>
+    <t>军费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%8D%A1</t>
@@ -1145,9 +1133,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>東巴基斯坦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -1193,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>Template talk-亞洲</t>
+    <t>Template talk-亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
@@ -1235,13 +1220,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>臺灣地區</t>
+    <t>台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
@@ -1397,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E8%8C%B2</t>
   </si>
   <si>
-    <t>阿布哈茲</t>
+    <t>阿布哈兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
@@ -1463,7 +1448,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
@@ -1499,13 +1484,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
@@ -1529,13 +1514,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
@@ -1547,7 +1532,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -1559,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -1583,9 +1568,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
   </si>
   <si>
@@ -1595,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1613,13 +1595,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -1637,55 +1616,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B</t>
   </si>
   <si>
-    <t>阿聯酋</t>
+    <t>阿联酋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%88%88%E5%B0%94%E8%AF%BA-%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1697,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E7%BD%97%E8%92%82%E9%87%8C%E5%92%8C%E6%B3%BD%E5%87%AF%E5%88%A9%E4%BA%9A</t>
@@ -1709,31 +1664,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B5%B7%E7%8F%BE%E7%8B%80</t>
   </si>
   <si>
-    <t>台海現狀</t>
+    <t>台海现状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E9%97%AE%E9%A2%98</t>
@@ -1829,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
@@ -1925,7 +1880,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -1955,13 +1910,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
@@ -1979,13 +1934,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>莫洛民族解放陣線</t>
+    <t>莫洛民族解放阵线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
@@ -2051,7 +2006,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
+    <t>伯利兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
@@ -2069,9 +2024,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
@@ -2093,9 +2045,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中非共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
   </si>
   <si>
@@ -2261,7 +2210,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -2315,7 +2264,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A</t>
@@ -2369,7 +2318,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -2399,7 +2348,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2435,13 +2384,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -4384,7 +4333,7 @@
         <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -4410,10 +4359,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>8</v>
@@ -4439,10 +4388,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -4468,10 +4417,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -4497,10 +4446,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -4526,10 +4475,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -4555,10 +4504,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -4584,10 +4533,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>32</v>
@@ -4613,10 +4562,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4642,10 +4591,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -4671,10 +4620,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4700,10 +4649,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>118</v>
@@ -4729,10 +4678,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4758,10 +4707,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4787,10 +4736,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4816,10 +4765,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>5</v>
@@ -4845,10 +4794,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>7</v>
@@ -4874,10 +4823,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -4903,10 +4852,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4932,10 +4881,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4961,10 +4910,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4990,10 +4939,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -5019,10 +4968,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -5048,10 +4997,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5077,10 +5026,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5135,10 +5084,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5164,10 +5113,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5193,10 +5142,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -5222,10 +5171,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5251,10 +5200,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5280,10 +5229,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5309,10 +5258,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5338,10 +5287,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5367,10 +5316,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5396,10 +5345,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5425,10 +5374,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5454,10 +5403,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>16</v>
@@ -5483,10 +5432,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5512,10 +5461,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -5541,10 +5490,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5570,10 +5519,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5599,10 +5548,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5628,10 +5577,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5657,10 +5606,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5686,10 +5635,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5715,10 +5664,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5744,10 +5693,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5773,10 +5722,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5802,10 +5751,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5831,10 +5780,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5860,10 +5809,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5889,10 +5838,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5918,10 +5867,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5947,10 +5896,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5976,10 +5925,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6005,10 +5954,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6034,10 +5983,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6063,10 +6012,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6092,10 +6041,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6121,10 +6070,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6150,10 +6099,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6179,10 +6128,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>109</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6208,10 +6157,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F118" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6237,10 +6186,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6266,10 +6215,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6295,10 +6244,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6324,10 +6273,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6353,10 +6302,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6382,10 +6331,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6411,10 +6360,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6469,10 +6418,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>5</v>
@@ -6498,10 +6447,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6527,10 +6476,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6556,10 +6505,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6585,10 +6534,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6614,10 +6563,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6643,10 +6592,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6672,10 +6621,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6701,10 +6650,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6730,10 +6679,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6759,10 +6708,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6788,10 +6737,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6817,10 +6766,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6846,10 +6795,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6875,10 +6824,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6904,10 +6853,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6933,10 +6882,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6962,10 +6911,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6991,10 +6940,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7020,10 +6969,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7049,10 +6998,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7078,10 +7027,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7107,10 +7056,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7136,10 +7085,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7165,10 +7114,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7194,10 +7143,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7223,10 +7172,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7252,10 +7201,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -7281,10 +7230,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>6</v>
@@ -7310,10 +7259,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7339,10 +7288,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7368,10 +7317,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7397,10 +7346,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7426,10 +7375,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7455,10 +7404,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7484,10 +7433,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -7513,10 +7462,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>9</v>
@@ -7542,10 +7491,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7571,10 +7520,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7600,10 +7549,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7629,10 +7578,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7658,10 +7607,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7716,10 +7665,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7745,10 +7694,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7774,10 +7723,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7803,10 +7752,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7832,10 +7781,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7861,10 +7810,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F175" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7890,10 +7839,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7919,10 +7868,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F177" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G177" t="n">
         <v>6</v>
@@ -7948,10 +7897,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F178" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7977,10 +7926,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F179" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8006,10 +7955,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8035,10 +7984,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F181" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G181" t="n">
         <v>4</v>
@@ -8064,10 +8013,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8093,10 +8042,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8122,10 +8071,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8151,10 +8100,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F185" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8180,10 +8129,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F186" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8209,10 +8158,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F187" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -8238,10 +8187,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F188" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8267,10 +8216,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F189" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8296,10 +8245,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F190" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8325,10 +8274,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F191" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8354,10 +8303,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F192" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8383,10 +8332,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F193" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8412,10 +8361,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F194" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G194" t="n">
         <v>5</v>
@@ -8441,10 +8390,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F195" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8470,10 +8419,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F196" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -8499,10 +8448,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F197" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8528,10 +8477,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F198" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8557,10 +8506,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F199" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8586,10 +8535,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F200" t="s">
-        <v>376</v>
+        <v>150</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8615,10 +8564,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F201" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8644,10 +8593,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F202" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8673,10 +8622,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F203" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8702,10 +8651,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F204" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8731,10 +8680,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F205" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8760,10 +8709,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F206" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8789,10 +8738,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F207" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8818,10 +8767,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F208" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G208" t="n">
         <v>8</v>
@@ -8847,10 +8796,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F209" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8876,10 +8825,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F210" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8905,10 +8854,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>116</v>
+      </c>
+      <c r="F211" t="s">
         <v>117</v>
-      </c>
-      <c r="F211" t="s">
-        <v>118</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8934,10 +8883,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F212" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -8963,10 +8912,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -8992,10 +8941,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9021,10 +8970,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F215" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -9050,10 +8999,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F216" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G216" t="n">
         <v>4</v>
@@ -9079,10 +9028,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F217" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9108,10 +9057,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F218" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9137,10 +9086,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F219" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9166,10 +9115,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F220" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9195,10 +9144,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F221" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
@@ -9224,10 +9173,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F222" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -9253,10 +9202,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F223" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G223" t="n">
         <v>4</v>
@@ -9282,10 +9231,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F224" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G224" t="n">
         <v>4</v>
@@ -9311,10 +9260,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F225" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -9340,10 +9289,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F226" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G226" t="n">
         <v>4</v>
@@ -9369,10 +9318,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F227" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -9398,10 +9347,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F228" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9427,10 +9376,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F229" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G229" t="n">
         <v>4</v>
@@ -9456,10 +9405,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F230" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9485,10 +9434,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F231" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9514,10 +9463,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F232" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G232" t="n">
         <v>4</v>
@@ -9543,10 +9492,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F233" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G233" t="n">
         <v>4</v>
@@ -9572,10 +9521,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F234" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G234" t="n">
         <v>4</v>
@@ -9601,10 +9550,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F235" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G235" t="n">
         <v>4</v>
@@ -9630,10 +9579,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F236" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G236" t="n">
         <v>4</v>
@@ -9659,10 +9608,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F237" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G237" t="n">
         <v>10</v>
@@ -9688,10 +9637,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F238" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G238" t="n">
         <v>4</v>
@@ -9717,10 +9666,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F239" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -9746,10 +9695,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F240" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G240" t="n">
         <v>5</v>
@@ -9775,10 +9724,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F241" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G241" t="n">
         <v>4</v>
@@ -9804,10 +9753,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F242" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9833,10 +9782,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F243" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9862,10 +9811,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F244" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9891,10 +9840,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F245" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G245" t="n">
         <v>5</v>
@@ -9920,10 +9869,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F246" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G246" t="n">
         <v>4</v>
@@ -9949,10 +9898,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F247" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9978,10 +9927,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F248" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G248" t="n">
         <v>4</v>
@@ -10007,10 +9956,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F249" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G249" t="n">
         <v>4</v>
@@ -10036,10 +9985,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F250" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G250" t="n">
         <v>4</v>
@@ -10065,10 +10014,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F251" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G251" t="n">
         <v>4</v>
@@ -10094,10 +10043,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F252" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G252" t="n">
         <v>4</v>
@@ -10123,10 +10072,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F253" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -10152,10 +10101,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F254" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G254" t="n">
         <v>3</v>
@@ -10181,10 +10130,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F255" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G255" t="n">
         <v>5</v>
@@ -10210,10 +10159,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F256" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G256" t="n">
         <v>4</v>
@@ -10239,10 +10188,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F257" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G257" t="n">
         <v>5</v>
@@ -10268,10 +10217,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F258" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G258" t="n">
         <v>3</v>
@@ -10297,10 +10246,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F259" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -10326,10 +10275,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F260" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10355,10 +10304,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F261" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10384,10 +10333,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F262" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10413,10 +10362,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F263" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -10442,10 +10391,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F264" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10471,10 +10420,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F265" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10500,10 +10449,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F266" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10529,10 +10478,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F267" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10558,10 +10507,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F268" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10587,10 +10536,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F269" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G269" t="n">
         <v>3</v>
@@ -10616,10 +10565,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F270" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G270" t="n">
         <v>3</v>
@@ -10645,10 +10594,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F271" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10674,10 +10623,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10703,10 +10652,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F273" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10732,10 +10681,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>389</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10761,10 +10710,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F275" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10790,10 +10739,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10819,10 +10768,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10848,10 +10797,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10877,10 +10826,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>160</v>
       </c>
       <c r="G279" t="n">
         <v>5</v>
@@ -10906,10 +10855,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10935,10 +10884,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F281" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10964,10 +10913,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F282" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -10993,10 +10942,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F283" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G283" t="n">
         <v>4</v>
@@ -11022,10 +10971,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F284" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G284" t="n">
         <v>4</v>
@@ -11051,10 +11000,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F285" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11080,10 +11029,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F286" t="s">
-        <v>542</v>
+        <v>415</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11109,10 +11058,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F287" t="s">
-        <v>544</v>
+        <v>113</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11138,10 +11087,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F288" t="s">
-        <v>546</v>
+        <v>409</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11167,10 +11116,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F289" t="s">
-        <v>548</v>
+        <v>495</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11196,10 +11145,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F290" t="s">
-        <v>550</v>
+        <v>429</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -11225,10 +11174,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="F291" t="s">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11254,10 +11203,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F292" t="s">
-        <v>554</v>
+        <v>417</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11283,10 +11232,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F293" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11312,10 +11261,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="F294" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11341,10 +11290,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F295" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11370,10 +11319,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F296" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11399,10 +11348,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F297" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11428,10 +11377,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="F298" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11457,10 +11406,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F299" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11486,10 +11435,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F300" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11515,10 +11464,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="F301" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11544,10 +11493,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F302" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11573,10 +11522,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="F303" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11602,10 +11551,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="F304" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11631,10 +11580,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="F305" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11660,10 +11609,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="F306" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11689,10 +11638,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="F307" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="G307" t="n">
         <v>4</v>
@@ -11718,10 +11667,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="F308" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11747,10 +11696,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="F309" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="G309" t="n">
         <v>3</v>
@@ -11776,10 +11725,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="F310" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11805,10 +11754,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="F311" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11834,10 +11783,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="F312" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11863,10 +11812,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="F313" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -11892,10 +11841,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F314" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -11921,10 +11870,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="F315" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="G315" t="n">
         <v>3</v>
@@ -11950,10 +11899,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="F316" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="G316" t="n">
         <v>3</v>
@@ -11979,10 +11928,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="F317" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12008,10 +11957,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="F318" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12037,10 +11986,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="F319" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12066,10 +12015,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="F320" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12095,10 +12044,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="F321" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12124,10 +12073,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="F322" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12153,10 +12102,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="F323" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12182,10 +12131,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="F324" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -12211,10 +12160,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="F325" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12240,10 +12189,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="F326" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12269,10 +12218,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="F327" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12298,10 +12247,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="F328" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12327,10 +12276,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="F329" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12356,10 +12305,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="F330" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12385,10 +12334,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="F331" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="G331" t="n">
         <v>6</v>
@@ -12414,10 +12363,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="F332" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12443,10 +12392,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="F333" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12472,10 +12421,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="F334" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12501,10 +12450,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="F335" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12530,10 +12479,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="F336" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -12559,10 +12508,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="F337" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12588,10 +12537,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="F338" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12617,10 +12566,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="F339" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -12646,10 +12595,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F340" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12675,10 +12624,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="F341" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -12704,10 +12653,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="F342" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -12733,10 +12682,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="F343" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -12762,10 +12711,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="F344" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -12791,10 +12740,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="F345" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -12820,10 +12769,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="F346" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -12849,10 +12798,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="F347" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -12878,10 +12827,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="F348" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -12907,10 +12856,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="F349" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12936,10 +12885,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F350" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12965,10 +12914,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="F351" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12994,10 +12943,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="F352" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13023,10 +12972,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="F353" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13052,10 +13001,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="F354" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -13081,10 +13030,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="F355" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13110,10 +13059,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="F356" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13139,10 +13088,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="F357" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13168,10 +13117,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="F358" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13197,10 +13146,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="F359" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13226,10 +13175,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="F360" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13255,10 +13204,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="F361" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13284,10 +13233,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="F362" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13313,10 +13262,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="F363" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13342,10 +13291,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="F364" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13371,10 +13320,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="F365" t="s">
-        <v>684</v>
+        <v>419</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13400,10 +13349,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="F366" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13429,10 +13378,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="F367" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13458,10 +13407,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="F368" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13487,10 +13436,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="F369" t="s">
-        <v>692</v>
+        <v>639</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13516,10 +13465,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="F370" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13545,10 +13494,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="F371" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13574,10 +13523,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="F372" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13603,10 +13552,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="F373" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13632,10 +13581,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="F374" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -13661,10 +13610,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="F375" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13690,10 +13639,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="F376" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13719,10 +13668,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="F377" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13748,10 +13697,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="F378" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13777,10 +13726,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="F379" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13806,10 +13755,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="F380" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13835,10 +13784,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="F381" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13864,10 +13813,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="F382" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13893,10 +13842,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="F383" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13922,10 +13871,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="F384" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13951,10 +13900,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="F385" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13980,10 +13929,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="F386" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14009,10 +13958,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="F387" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14038,10 +13987,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="F388" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14067,10 +14016,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="F389" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14096,10 +14045,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="F390" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14125,10 +14074,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="F391" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14154,10 +14103,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="F392" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14183,10 +14132,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="F393" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14212,10 +14161,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="F394" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14241,10 +14190,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="F395" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14270,10 +14219,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="F396" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14299,10 +14248,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="F397" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14328,10 +14277,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="F398" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14357,10 +14306,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="F399" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14386,10 +14335,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="F400" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14415,10 +14364,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="F401" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14444,10 +14393,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="F402" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14473,10 +14422,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="F403" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14502,10 +14451,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F404" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14531,10 +14480,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="F405" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14560,10 +14509,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="F406" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14589,10 +14538,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F407" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -14618,10 +14567,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="F408" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14647,10 +14596,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="F409" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14676,10 +14625,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="F410" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14705,10 +14654,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="F411" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14734,10 +14683,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="F412" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14763,10 +14712,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="F413" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14792,10 +14741,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="F414" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14821,10 +14770,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="F415" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14850,10 +14799,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="F416" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14879,10 +14828,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="F417" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14908,10 +14857,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="F418" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14937,10 +14886,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="F419" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14966,10 +14915,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="F420" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -14995,10 +14944,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="F421" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15024,10 +14973,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="F422" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15053,10 +15002,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="F423" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15082,10 +15031,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="F424" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15111,10 +15060,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="F425" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -15140,10 +15089,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="F426" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="G426" t="n">
         <v>3</v>
@@ -15169,10 +15118,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="F427" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15198,10 +15147,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="F428" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15227,10 +15176,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="F429" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15256,10 +15205,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="F430" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15285,10 +15234,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="F431" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15314,10 +15263,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="F432" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15343,10 +15292,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="F433" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15372,10 +15321,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="F434" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="G434" t="n">
         <v>5</v>

--- a/xlsx/孟加拉国_intext.xlsx
+++ b/xlsx/孟加拉国_intext.xlsx
@@ -29,7 +29,7 @@
     <t>孟加拉 (地區)</t>
   </si>
   <si>
-    <t>政策_政策_美國_孟加拉国</t>
+    <t>体育运动_体育运动_伊朗_孟加拉国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD%E5%9B%BD%E6%97%97</t>
